--- a/IReMus_CollabScore_Phase1.xlsx
+++ b/IReMus_CollabScore_Phase1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe/Documents/GitHub/Saint-Saens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B69677-75E7-4C42-BA41-24996BC794A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6915F2-89D1-544C-AA8C-35E818C50AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="20540" xr2:uid="{C8B1B8B2-6E3F-384E-A3C7-6CD6B28ACFE1}"/>
   </bookViews>
@@ -576,9 +576,6 @@
     <t>MS-725</t>
   </si>
   <si>
-    <t>Mélodie</t>
-  </si>
-  <si>
     <t>MS-789</t>
   </si>
   <si>
@@ -595,6 +592,9 @@
   </si>
   <si>
     <t>MS-529(9)</t>
+  </si>
+  <si>
+    <t>Mélodie-</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F694716-00E1-9045-A36F-F5FD2C95D710}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:G56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1793,7 +1793,7 @@
         <v>163</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>151</v>
@@ -1886,7 +1886,7 @@
         <v>179</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1903,7 +1903,7 @@
         <v>180</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1920,7 +1920,7 @@
         <v>182</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1928,13 +1928,13 @@
         <v>178</v>
       </c>
       <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="F55" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
